--- a/webdriver/src/test/resources/TestData.xlsx
+++ b/webdriver/src/test/resources/TestData.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
@@ -31,7 +30,7 @@
     <t>MOBILE</t>
   </si>
   <si>
-    <t>abinash</t>
+    <t>IPHONE</t>
   </si>
 </sst>
 </file>
@@ -398,7 +397,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
